--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2840" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
-    <sheet name="viz" sheetId="2" r:id="rId2"/>
+    <sheet name="ALL" sheetId="2" r:id="rId2"/>
+    <sheet name="more than 5 apps (experts)" sheetId="3" r:id="rId3"/>
+    <sheet name="3-5 apps (intermediate" sheetId="4" r:id="rId4"/>
+    <sheet name="less than 2 apps (beginners)" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="59">
   <si>
     <t>Timestamp</t>
   </si>
@@ -624,6 +627,1312 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UI Adaptation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Not frequently</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reuse: Web Components</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$28:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I use components like ReactJS or Polymer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$28:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adaptation issues with non-SW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> users</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$34:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$34:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Spent on Bootstrapping the UI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>  less than a day</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> almost one day</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2-3 days</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 4-7 days</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> more than a week</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Reuse: Copy/paste</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No, I usually write the code from the scratch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes but not much</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I do it much and frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UI Adaptation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Not frequently</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reuse: Web Components</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$A$28:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I use components like ReactJS or Polymer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$B$28:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adaptation issues with non-SW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> users</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$A$34:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]3-5 apps (intermediate)'!$B$34:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Spent on Bootstrapping the UI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>  less than a day</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> almost one day</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2-3 days</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 4-7 days</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> more than a week</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Reuse: Copy/paste</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No, I usually write the code from the scratch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes but not much</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I do it much and frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -755,6 +2064,376 @@
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UI Adaptation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Not frequently</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reuse: Web Components</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$A$28:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I use components like ReactJS or Polymer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$B$28:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Adaptation issues with non-SW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> users</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$A$34:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>  Not at all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]less than 2 apps (beginners)'!$B$34:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -1448,6 +3127,279 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Spent on Bootstrapping the UI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>  less than a day</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> almost one day</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2-3 days</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 4-7 days</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> more than a week</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Reuse: Copy/paste</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]more than 5 apps (experts)'!$A$14:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No, I usually write the code from the scratch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes but not much</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yes, I do it much and frequently</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]more than 5 apps (experts)'!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1677,6 +3629,501 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1685,6 +4132,10 @@
       <sheetName val="mapped"/>
       <sheetName val="results"/>
       <sheetName val="Sheet7"/>
+      <sheetName val="sorted"/>
+      <sheetName val="more than 5 apps (experts)"/>
+      <sheetName val="3-5 apps (intermediate)"/>
+      <sheetName val="less than 2 apps (beginners)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1884,6 +4335,373 @@
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v xml:space="preserve">  less than a day</v>
+          </cell>
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v> almost one day</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v> 2-3 days</v>
+          </cell>
+          <cell r="B7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v> 4-7 days</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v> more than a week</v>
+          </cell>
+          <cell r="B9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>No, I usually write the code from the scratch</v>
+          </cell>
+          <cell r="B14">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Yes but not much</v>
+          </cell>
+          <cell r="B15">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Yes, I do it much and frequently</v>
+          </cell>
+          <cell r="B16">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v xml:space="preserve">  Not at all</v>
+          </cell>
+          <cell r="B21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v> Not frequently</v>
+          </cell>
+          <cell r="B22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v> Frequently</v>
+          </cell>
+          <cell r="B23">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Not at all</v>
+          </cell>
+          <cell r="B28">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</v>
+          </cell>
+          <cell r="B29">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Yes, I use components like ReactJS or Polymer</v>
+          </cell>
+          <cell r="B30">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v xml:space="preserve">  Not at all</v>
+          </cell>
+          <cell r="B34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v> Yes, I had to spend some time explaining the Semantic Web concepts</v>
+          </cell>
+          <cell r="B35">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v> Yes but I had other issues than dealing with Semantic Web knowledge</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v xml:space="preserve">  less than a day</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v> almost one day</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v> 2-3 days</v>
+          </cell>
+          <cell r="B7">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v> 4-7 days</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v> more than a week</v>
+          </cell>
+          <cell r="B9">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>No, I usually write the code from the scratch</v>
+          </cell>
+          <cell r="B14">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Yes but not much</v>
+          </cell>
+          <cell r="B15">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Yes, I do it much and frequently</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v xml:space="preserve">  Not at all</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v> Not frequently</v>
+          </cell>
+          <cell r="B22">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v> Frequently</v>
+          </cell>
+          <cell r="B23">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Not at all</v>
+          </cell>
+          <cell r="B28">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</v>
+          </cell>
+          <cell r="B29">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Yes, I use components like ReactJS or Polymer</v>
+          </cell>
+          <cell r="B30">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v xml:space="preserve">  Not at all</v>
+          </cell>
+          <cell r="B34">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v> Yes, I had to spend some time explaining the Semantic Web concepts</v>
+          </cell>
+          <cell r="B35">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v> Yes but I had other issues than dealing with Semantic Web knowledge</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v xml:space="preserve">  less than a day</v>
+          </cell>
+          <cell r="B5">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v> almost one day</v>
+          </cell>
+          <cell r="B6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v> 2-3 days</v>
+          </cell>
+          <cell r="B7">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v> 4-7 days</v>
+          </cell>
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v> more than a week</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Not at all</v>
+          </cell>
+          <cell r="B28">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Not Web components but I do use plugins from libraries like jQuery or AngularJS</v>
+          </cell>
+          <cell r="B29">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Yes, I use components like ReactJS or Polymer</v>
+          </cell>
+          <cell r="B30">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v xml:space="preserve">  Not at all</v>
+          </cell>
+          <cell r="B34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v> Yes, I had to spend some time explaining the Semantic Web concepts</v>
+          </cell>
+          <cell r="B35">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v> Yes but I had other issues than dealing with Semantic Web knowledge</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -30241,7 +33059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -30497,4 +33315,568 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32">
+      <c r="A29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
+      <c r="A36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32">
+      <c r="A29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
+      <c r="A36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16">
+      <c r="A28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32">
+      <c r="A29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34">
+      <c r="A35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
+      <c r="A36" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4380" yWindow="-21600" windowWidth="33960" windowHeight="19020" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023291784"/>
-        <c:axId val="-2023288808"/>
+        <c:axId val="2140769560"/>
+        <c:axId val="2140771944"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2023291784"/>
+        <c:axId val="2140769560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023288808"/>
+        <c:crossAx val="2140771944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023288808"/>
+        <c:axId val="2140771944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023291784"/>
+        <c:crossAx val="2140769560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1346,7 +1346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1480,7 +1479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1690,11 +1688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2028658856"/>
-        <c:axId val="-2028655800"/>
+        <c:axId val="2141045624"/>
+        <c:axId val="2141048680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2028658856"/>
+        <c:axId val="2141045624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2028655800"/>
+        <c:crossAx val="2141048680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2028655800"/>
+        <c:axId val="2141048680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1720,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2028658856"/>
+        <c:crossAx val="2141045624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1774,7 +1771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1948,11 +1944,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2029501848"/>
-        <c:axId val="-2028637720"/>
+        <c:axId val="2141091096"/>
+        <c:axId val="2141094152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029501848"/>
+        <c:axId val="2141091096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2028637720"/>
+        <c:crossAx val="2141094152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2028637720"/>
+        <c:axId val="2141094152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,14 +1976,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029501848"/>
+        <c:crossAx val="2141091096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2032,7 +2027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2206,11 +2200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2028462216"/>
-        <c:axId val="-2066727160"/>
+        <c:axId val="2141136472"/>
+        <c:axId val="2141139528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2028462216"/>
+        <c:axId val="2141136472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +2213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066727160"/>
+        <c:crossAx val="2141139528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066727160"/>
+        <c:axId val="2141139528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,14 +2232,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2028462216"/>
+        <c:crossAx val="2141136472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2290,7 +2283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2464,11 +2456,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2029724696"/>
-        <c:axId val="-2029721640"/>
+        <c:axId val="2140447928"/>
+        <c:axId val="2140444856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029724696"/>
+        <c:axId val="2140447928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029721640"/>
+        <c:crossAx val="2140444856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2485,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029721640"/>
+        <c:axId val="2140444856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,14 +2488,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029724696"/>
+        <c:crossAx val="2140447928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2548,7 +2539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2722,11 +2712,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2029668216"/>
-        <c:axId val="2070432232"/>
+        <c:axId val="2140402264"/>
+        <c:axId val="2140399192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029668216"/>
+        <c:axId val="2140402264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070432232"/>
+        <c:crossAx val="2140399192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +2733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070432232"/>
+        <c:axId val="2140399192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,14 +2744,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029668216"/>
+        <c:crossAx val="2140402264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2806,7 +2795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2998,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2067032568"/>
-        <c:axId val="-2029423144"/>
+        <c:axId val="2140357128"/>
+        <c:axId val="2140354056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067032568"/>
+        <c:axId val="2140357128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029423144"/>
+        <c:crossAx val="2140354056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3019,7 +3007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029423144"/>
+        <c:axId val="2140354056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,14 +3018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067032568"/>
+        <c:crossAx val="2140357128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3108,7 +3095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3190,7 +3176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3240,7 +3225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3310,7 +3294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3355,7 +3338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3425,7 +3407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3960,11 +3941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023260104"/>
-        <c:axId val="-2023257128"/>
+        <c:axId val="2141928248"/>
+        <c:axId val="2141931224"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2023260104"/>
+        <c:axId val="2141928248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023257128"/>
+        <c:crossAx val="2141931224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3981,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023257128"/>
+        <c:axId val="2141931224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023260104"/>
+        <c:crossAx val="2141928248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4043,7 +4024,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4113,7 +4093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4163,7 +4142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4233,7 +4211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4967,7 +4944,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5049,7 +5025,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5109,7 +5084,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5179,7 +5153,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5224,7 +5197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5294,7 +5266,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5829,11 +5800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023230488"/>
-        <c:axId val="-2023227512"/>
+        <c:axId val="2141958088"/>
+        <c:axId val="2141961064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2023230488"/>
+        <c:axId val="2141958088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,7 +5813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023227512"/>
+        <c:crossAx val="2141961064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5850,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023227512"/>
+        <c:axId val="2141961064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023230488"/>
+        <c:crossAx val="2141958088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5912,7 +5883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5982,7 +5952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6042,7 +6011,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6112,7 +6080,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6172,7 +6139,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0698743907011623"/>
+          <c:y val="0.155102082356335"/>
+          <c:w val="0.895734074907303"/>
+          <c:h val="0.649841354609608"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -6341,11 +6318,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2068213288"/>
-        <c:axId val="-2068280040"/>
+        <c:axId val="2143891160"/>
+        <c:axId val="2143894312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068213288"/>
+        <c:axId val="2143891160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6356,10 +6333,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
-            <a:prstDash val="dot"/>
+            <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2068280040"/>
+        <c:crossAx val="2143894312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6367,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2068280040"/>
+        <c:axId val="2143894312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6378,10 +6355,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2068213288"/>
+        <c:crossAx val="2143891160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6440,7 +6422,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0670368519924857"/>
+          <c:y val="0.154751117437639"/>
+          <c:w val="0.899968224149646"/>
+          <c:h val="0.650633693427006"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -6645,11 +6637,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2120143624"/>
-        <c:axId val="-2125416136"/>
+        <c:axId val="2143933896"/>
+        <c:axId val="2143936952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2120143624"/>
+        <c:axId val="2143933896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,7 +6650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125416136"/>
+        <c:crossAx val="2143936952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6666,7 +6658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125416136"/>
+        <c:axId val="2143936952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,7 +6669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120143624"/>
+        <c:crossAx val="2143933896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,11 +6895,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2122835640"/>
-        <c:axId val="-2122461080"/>
+        <c:axId val="2143979000"/>
+        <c:axId val="2143982056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122835640"/>
+        <c:axId val="2143979000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6916,7 +6908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122461080"/>
+        <c:crossAx val="2143982056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6924,7 +6916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122461080"/>
+        <c:axId val="2143982056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,13 +6927,52 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122835640"/>
+        <c:crossAx val="2143979000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -6997,7 +7028,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0719164733894963"/>
+          <c:y val="0.191328692398953"/>
+          <c:w val="0.8926868978446"/>
+          <c:h val="0.618405772634301"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -7166,11 +7207,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2029915432"/>
-        <c:axId val="-2029912376"/>
+        <c:axId val="2144025400"/>
+        <c:axId val="2144028456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029915432"/>
+        <c:axId val="2144025400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029912376"/>
+        <c:crossAx val="2144028456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7187,7 +7228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029912376"/>
+        <c:axId val="2144028456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,7 +7239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2029915432"/>
+        <c:crossAx val="2144025400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7255,7 +7296,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0671732443668346"/>
+          <c:y val="0.212783851976451"/>
+          <c:w val="0.899764700699289"/>
+          <c:h val="0.600729124586929"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -7424,11 +7475,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2127706152"/>
-        <c:axId val="-2122586648"/>
+        <c:axId val="2144069880"/>
+        <c:axId val="2144072936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127706152"/>
+        <c:axId val="2144069880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7437,7 +7488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122586648"/>
+        <c:crossAx val="2144072936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7445,7 +7496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122586648"/>
+        <c:axId val="2144072936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127706152"/>
+        <c:crossAx val="2144069880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7516,7 +7567,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0671732443668346"/>
+          <c:y val="0.191328692398953"/>
+          <c:w val="0.899764700699289"/>
+          <c:h val="0.622601577292173"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -7703,11 +7764,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2123582792"/>
-        <c:axId val="-2123587176"/>
+        <c:axId val="2144113464"/>
+        <c:axId val="2144116520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123582792"/>
+        <c:axId val="2144113464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7716,7 +7777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123587176"/>
+        <c:crossAx val="2144116520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7724,7 +7785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123587176"/>
+        <c:axId val="2144116520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7735,7 +7796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123582792"/>
+        <c:crossAx val="2144113464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8224,7 +8285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8363,7 +8423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9582,16 +9641,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>575734</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9615,15 +9674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>29633</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9647,15 +9706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>766234</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9679,15 +9738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>16933</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>553720</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9711,15 +9770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>550333</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>21165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>589280</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9745,13 +9804,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -68604,7 +68663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="E98" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="S130" sqref="S130"/>
     </sheetView>
   </sheetViews>
@@ -69894,8 +69953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="105" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140769560"/>
-        <c:axId val="2140771944"/>
+        <c:axId val="2108466232"/>
+        <c:axId val="2108469208"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2140769560"/>
+        <c:axId val="2108466232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140771944"/>
+        <c:crossAx val="2108469208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140771944"/>
+        <c:axId val="2108469208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140769560"/>
+        <c:crossAx val="2108466232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,11 +1688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141045624"/>
-        <c:axId val="2141048680"/>
+        <c:axId val="2109052968"/>
+        <c:axId val="2109056024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141045624"/>
+        <c:axId val="2109052968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141048680"/>
+        <c:crossAx val="2109056024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141048680"/>
+        <c:axId val="2109056024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141045624"/>
+        <c:crossAx val="2109052968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1944,11 +1944,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141091096"/>
-        <c:axId val="2141094152"/>
+        <c:axId val="2109098440"/>
+        <c:axId val="2109101496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141091096"/>
+        <c:axId val="2109098440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141094152"/>
+        <c:crossAx val="2109101496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141094152"/>
+        <c:axId val="2109101496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141091096"/>
+        <c:crossAx val="2109098440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2200,11 +2200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141136472"/>
-        <c:axId val="2141139528"/>
+        <c:axId val="2109143896"/>
+        <c:axId val="2109146952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141136472"/>
+        <c:axId val="2109143896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141139528"/>
+        <c:crossAx val="2109146952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2221,7 +2221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141139528"/>
+        <c:axId val="2109146952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141136472"/>
+        <c:crossAx val="2109143896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,11 +2456,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140447928"/>
-        <c:axId val="2140444856"/>
+        <c:axId val="2109188840"/>
+        <c:axId val="2109191896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140447928"/>
+        <c:axId val="2109188840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140444856"/>
+        <c:crossAx val="2109191896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140444856"/>
+        <c:axId val="2109191896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140447928"/>
+        <c:crossAx val="2109188840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,11 +2712,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140402264"/>
-        <c:axId val="2140399192"/>
+        <c:axId val="2109234504"/>
+        <c:axId val="2109237560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140402264"/>
+        <c:axId val="2109234504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140399192"/>
+        <c:crossAx val="2109237560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2733,7 +2733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140399192"/>
+        <c:axId val="2109237560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,7 +2744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140402264"/>
+        <c:crossAx val="2109234504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2140357128"/>
-        <c:axId val="2140354056"/>
+        <c:axId val="2109279640"/>
+        <c:axId val="2109282696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140357128"/>
+        <c:axId val="2109279640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140354056"/>
+        <c:crossAx val="2109282696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3007,7 +3007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140354056"/>
+        <c:axId val="2109282696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +3018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140357128"/>
+        <c:crossAx val="2109279640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3941,11 +3941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141928248"/>
-        <c:axId val="2141931224"/>
+        <c:axId val="2106699496"/>
+        <c:axId val="2106696504"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2141928248"/>
+        <c:axId val="2106699496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141931224"/>
+        <c:crossAx val="2106696504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3962,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141931224"/>
+        <c:axId val="2106696504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141928248"/>
+        <c:crossAx val="2106699496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5800,11 +5800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141958088"/>
-        <c:axId val="2141961064"/>
+        <c:axId val="2106669624"/>
+        <c:axId val="2106666632"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2141958088"/>
+        <c:axId val="2106669624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141961064"/>
+        <c:crossAx val="2106666632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5821,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141961064"/>
+        <c:axId val="2106666632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141958088"/>
+        <c:crossAx val="2106669624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6318,11 +6318,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143891160"/>
-        <c:axId val="2143894312"/>
+        <c:axId val="2108771736"/>
+        <c:axId val="2108768568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143891160"/>
+        <c:axId val="2108771736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6336,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2143894312"/>
+        <c:crossAx val="2108768568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143894312"/>
+        <c:axId val="2108768568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,7 +6355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143891160"/>
+        <c:crossAx val="2108771736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6371,6 +6371,9 @@
   </c:chart>
   <c:spPr>
     <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="FFFFFF"/>
+      </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
@@ -6637,11 +6640,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143933896"/>
-        <c:axId val="2143936952"/>
+        <c:axId val="2108729192"/>
+        <c:axId val="2108726120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143933896"/>
+        <c:axId val="2108729192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6650,7 +6653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143936952"/>
+        <c:crossAx val="2108726120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6658,7 +6661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143936952"/>
+        <c:axId val="2108726120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6669,7 +6672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143933896"/>
+        <c:crossAx val="2108729192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6680,6 +6683,9 @@
   </c:chart>
   <c:spPr>
     <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="FFFFFF"/>
+      </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
@@ -6895,11 +6901,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2143979000"/>
-        <c:axId val="2143982056"/>
+        <c:axId val="2109895832"/>
+        <c:axId val="2109898888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143979000"/>
+        <c:axId val="2109895832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6908,7 +6914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143982056"/>
+        <c:crossAx val="2109898888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6916,7 +6922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143982056"/>
+        <c:axId val="2109898888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6927,7 +6933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143979000"/>
+        <c:crossAx val="2109895832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6982,6 +6988,9 @@
   </c:chart>
   <c:spPr>
     <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
@@ -7207,11 +7216,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2144025400"/>
-        <c:axId val="2144028456"/>
+        <c:axId val="2109942232"/>
+        <c:axId val="2109945288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144025400"/>
+        <c:axId val="2109942232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7220,7 +7229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144028456"/>
+        <c:crossAx val="2109945288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7228,7 +7237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144028456"/>
+        <c:axId val="2109945288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7239,7 +7248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144025400"/>
+        <c:crossAx val="2109942232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7250,6 +7259,9 @@
   </c:chart>
   <c:spPr>
     <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="FFFFFF"/>
+      </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
@@ -7475,11 +7487,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2144069880"/>
-        <c:axId val="2144072936"/>
+        <c:axId val="2109986712"/>
+        <c:axId val="2109989768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144069880"/>
+        <c:axId val="2109986712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7488,7 +7500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144072936"/>
+        <c:crossAx val="2109989768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7496,7 +7508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144072936"/>
+        <c:axId val="2109989768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7507,7 +7519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144069880"/>
+        <c:crossAx val="2109986712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7519,7 +7531,7 @@
   <c:spPr>
     <a:ln>
       <a:solidFill>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
@@ -7764,11 +7776,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2144113464"/>
-        <c:axId val="2144116520"/>
+        <c:axId val="2110030296"/>
+        <c:axId val="2110033352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144113464"/>
+        <c:axId val="2110030296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7777,7 +7789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144116520"/>
+        <c:crossAx val="2110033352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7785,7 +7797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144116520"/>
+        <c:axId val="2110033352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7796,7 +7808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144113464"/>
+        <c:crossAx val="2110030296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7807,6 +7819,9 @@
   </c:chart>
   <c:spPr>
     <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="FFFFFF"/>
+      </a:solidFill>
       <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
@@ -69953,8 +69968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="105" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-2900" yWindow="-21080" windowWidth="34900" windowHeight="19820" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108466232"/>
-        <c:axId val="2108469208"/>
+        <c:axId val="2121583256"/>
+        <c:axId val="2109948344"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2108466232"/>
+        <c:axId val="2121583256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108469208"/>
+        <c:crossAx val="2109948344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108469208"/>
+        <c:axId val="2109948344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108466232"/>
+        <c:crossAx val="2121583256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1346,6 +1346,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1479,6 +1480,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1688,11 +1690,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109052968"/>
-        <c:axId val="2109056024"/>
+        <c:axId val="2124605768"/>
+        <c:axId val="2124608824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109052968"/>
+        <c:axId val="2124605768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109056024"/>
+        <c:crossAx val="2124608824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109056024"/>
+        <c:axId val="2124608824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,13 +1722,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109052968"/>
+        <c:crossAx val="2124605768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1771,6 +1774,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1944,11 +1948,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109098440"/>
-        <c:axId val="2109101496"/>
+        <c:axId val="2108288568"/>
+        <c:axId val="2108291624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109098440"/>
+        <c:axId val="2108288568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109101496"/>
+        <c:crossAx val="2108291624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109101496"/>
+        <c:axId val="2108291624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,13 +1980,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109098440"/>
+        <c:crossAx val="2108288568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2027,6 +2032,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2200,11 +2206,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109143896"/>
-        <c:axId val="2109146952"/>
+        <c:axId val="2124768152"/>
+        <c:axId val="2124771208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109143896"/>
+        <c:axId val="2124768152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109146952"/>
+        <c:crossAx val="2124771208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2221,7 +2227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109146952"/>
+        <c:axId val="2124771208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,13 +2238,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109143896"/>
+        <c:crossAx val="2124768152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2283,6 +2290,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2456,11 +2464,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109188840"/>
-        <c:axId val="2109191896"/>
+        <c:axId val="2120177176"/>
+        <c:axId val="2120057240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109188840"/>
+        <c:axId val="2120177176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109191896"/>
+        <c:crossAx val="2120057240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109191896"/>
+        <c:axId val="2120057240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,13 +2496,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109188840"/>
+        <c:crossAx val="2120177176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2539,6 +2548,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2695,7 +2705,7 @@
                   <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,11 +2722,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109234504"/>
-        <c:axId val="2109237560"/>
+        <c:axId val="2120111480"/>
+        <c:axId val="2120114536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109234504"/>
+        <c:axId val="2120111480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109237560"/>
+        <c:crossAx val="2120114536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2733,7 +2743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109237560"/>
+        <c:axId val="2120114536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,13 +2754,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109234504"/>
+        <c:crossAx val="2120111480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2795,6 +2806,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2986,11 +2998,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109279640"/>
-        <c:axId val="2109282696"/>
+        <c:axId val="2120053256"/>
+        <c:axId val="2120056312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109279640"/>
+        <c:axId val="2120053256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +3011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109282696"/>
+        <c:crossAx val="2120056312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3007,7 +3019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109282696"/>
+        <c:axId val="2120056312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,13 +3030,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109279640"/>
+        <c:crossAx val="2120053256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3095,6 +3108,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3176,6 +3190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3225,6 +3240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3294,6 +3310,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3338,6 +3355,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3407,6 +3425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3941,11 +3960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106699496"/>
-        <c:axId val="2106696504"/>
+        <c:axId val="2087806104"/>
+        <c:axId val="2121297960"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2106699496"/>
+        <c:axId val="2087806104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106696504"/>
+        <c:crossAx val="2121297960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3962,7 +3981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106696504"/>
+        <c:axId val="2121297960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106699496"/>
+        <c:crossAx val="2087806104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4024,6 +4043,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4093,6 +4113,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4142,6 +4163,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4211,6 +4233,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5800,11 +5823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106669624"/>
-        <c:axId val="2106666632"/>
+        <c:axId val="2110536088"/>
+        <c:axId val="2110539064"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2106669624"/>
+        <c:axId val="2110536088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106666632"/>
+        <c:crossAx val="2110539064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5821,7 +5844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106666632"/>
+        <c:axId val="2110539064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106669624"/>
+        <c:crossAx val="2110536088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6318,11 +6341,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2108771736"/>
-        <c:axId val="2108768568"/>
+        <c:axId val="2109901352"/>
+        <c:axId val="2109903992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108771736"/>
+        <c:axId val="2109901352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6359,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2108768568"/>
+        <c:crossAx val="2109903992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108768568"/>
+        <c:axId val="2109903992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,7 +6378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108771736"/>
+        <c:crossAx val="2109901352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6640,11 +6663,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2108729192"/>
-        <c:axId val="2108726120"/>
+        <c:axId val="2121734888"/>
+        <c:axId val="2121737944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108729192"/>
+        <c:axId val="2121734888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,7 +6676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108726120"/>
+        <c:crossAx val="2121737944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6661,7 +6684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108726120"/>
+        <c:axId val="2121737944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6672,7 +6695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108729192"/>
+        <c:crossAx val="2121734888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6901,11 +6924,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109895832"/>
-        <c:axId val="2109898888"/>
+        <c:axId val="2088618472"/>
+        <c:axId val="2088621528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109895832"/>
+        <c:axId val="2088618472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6914,7 +6937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109898888"/>
+        <c:crossAx val="2088621528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6922,7 +6945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109898888"/>
+        <c:axId val="2088621528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6933,13 +6956,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109895832"/>
+        <c:crossAx val="2088618472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
@@ -6947,7 +6970,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6960,7 +6983,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6973,7 +6996,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6981,6 +7004,16 @@
       </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7216,11 +7249,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109942232"/>
-        <c:axId val="2109945288"/>
+        <c:axId val="2087741144"/>
+        <c:axId val="2087754104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109942232"/>
+        <c:axId val="2087741144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7229,7 +7262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109945288"/>
+        <c:crossAx val="2087754104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7237,7 +7270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109945288"/>
+        <c:axId val="2087754104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7248,7 +7281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109942232"/>
+        <c:crossAx val="2087741144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7298,7 +7331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Adoption issues with non-SW users</a:t>
+              <a:t>Knowledge of Semantic Web</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7314,9 +7347,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0671732443668346"/>
-          <c:y val="0.212783851976451"/>
+          <c:y val="0.187132887741081"/>
           <c:w val="0.899764700699289"/>
-          <c:h val="0.600729124586929"/>
+          <c:h val="0.622601577292173"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7328,7 +7361,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$104</c:f>
+              <c:f>results!$F$118</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7340,35 +7373,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$103:$I$103</c:f>
+              <c:f>results!$G$117:$J$117</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Not at all</c:v>
+                  <c:v>less than a year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                  <c:v>2-3 years</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                  <c:v>4-5 years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>more than 5 years</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$104:$I$104</c:f>
+              <c:f>results!$G$118:$J$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7379,7 +7418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$105</c:f>
+              <c:f>results!$F$119</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7391,35 +7430,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$103:$I$103</c:f>
+              <c:f>results!$G$117:$J$117</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Not at all</c:v>
+                  <c:v>less than a year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                  <c:v>2-3 years</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                  <c:v>4-5 years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>more than 5 years</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$105:$I$105</c:f>
+              <c:f>results!$G$119:$J$119</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7430,7 +7475,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$106</c:f>
+              <c:f>results!$F$120</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7442,35 +7487,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$103:$I$103</c:f>
+              <c:f>results!$G$117:$J$117</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Not at all</c:v>
+                  <c:v>less than a year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
+                  <c:v>2-3 years</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
+                  <c:v>4-5 years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>more than 5 years</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$106:$I$106</c:f>
+              <c:f>results!$G$120:$J$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7487,11 +7538,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109986712"/>
-        <c:axId val="2109989768"/>
+        <c:axId val="2109982936"/>
+        <c:axId val="2122021256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109986712"/>
+        <c:axId val="2109982936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +7551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109989768"/>
+        <c:crossAx val="2122021256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7508,7 +7559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109989768"/>
+        <c:axId val="2122021256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7519,7 +7570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109986712"/>
+        <c:crossAx val="2109982936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7569,7 +7620,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Knowledge of Semantic Web</a:t>
+              <a:t>Adoption issues with non-SW users</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7584,10 +7635,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0671732443668346"/>
-          <c:y val="0.191328692398953"/>
-          <c:w val="0.899764700699289"/>
-          <c:h val="0.622601577292173"/>
+          <c:x val="0.0630370398210963"/>
+          <c:y val="0.186885245901639"/>
+          <c:w val="0.888704827767651"/>
+          <c:h val="0.610874532076933"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7599,7 +7650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$118</c:f>
+              <c:f>results!$F$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7611,41 +7662,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$117:$J$117</c:f>
+              <c:f>results!$G$103:$I$103</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>less than a year</c:v>
+                  <c:v>Not at all</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-3 years</c:v>
+                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-5 years</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>more than 5 years</c:v>
+                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$118:$J$118</c:f>
+              <c:f>results!$G$104:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7656,7 +7701,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$119</c:f>
+              <c:f>results!$F$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7668,41 +7713,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$117:$J$117</c:f>
+              <c:f>results!$G$103:$I$103</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>less than a year</c:v>
+                  <c:v>Not at all</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-3 years</c:v>
+                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-5 years</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>more than 5 years</c:v>
+                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$119:$J$119</c:f>
+              <c:f>results!$G$105:$I$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7713,7 +7752,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>results!$F$120</c:f>
+              <c:f>results!$F$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7725,41 +7764,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>results!$G$117:$J$117</c:f>
+              <c:f>results!$G$103:$I$103</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>less than a year</c:v>
+                  <c:v>Not at all</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2-3 years</c:v>
+                  <c:v>Yes, I had to spend some time explaining the Semantic Web concepts</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4-5 years</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>more than 5 years</c:v>
+                  <c:v>Yes but I had other issues than dealing with Semantic Web knowledge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>results!$G$120:$J$120</c:f>
+              <c:f>results!$G$106:$I$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,11 +7809,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110030296"/>
-        <c:axId val="2110033352"/>
+        <c:axId val="-2079965944"/>
+        <c:axId val="-2079962888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110030296"/>
+        <c:axId val="-2079965944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7789,7 +7822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110033352"/>
+        <c:crossAx val="-2079962888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7797,7 +7830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110033352"/>
+        <c:axId val="-2079962888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7808,7 +7841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110030296"/>
+        <c:crossAx val="-2079965944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7822,7 +7855,6 @@
       <a:solidFill>
         <a:srgbClr val="FFFFFF"/>
       </a:solidFill>
-      <a:prstDash val="dot"/>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -8300,6 +8332,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8438,6 +8471,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9728,8 +9762,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>766234</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9784,20 +9818,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>21165</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>745067</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9816,20 +9850,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -68678,8 +68712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S130" sqref="S130"/>
+    <sheetView topLeftCell="C77" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="T112" sqref="T112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -69318,7 +69352,7 @@
         <v>10</v>
       </c>
       <c r="I106">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="6:10">
@@ -69968,8 +70002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="V75" sqref="V75"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2900" yWindow="-21080" windowWidth="34900" windowHeight="19820" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121583256"/>
-        <c:axId val="2109948344"/>
+        <c:axId val="2123341544"/>
+        <c:axId val="2122420136"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2121583256"/>
+        <c:axId val="2123341544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109948344"/>
+        <c:crossAx val="2122420136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109948344"/>
+        <c:axId val="2122420136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121583256"/>
+        <c:crossAx val="2123341544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1346,7 +1346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1480,7 +1479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1690,11 +1688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124605768"/>
-        <c:axId val="2124608824"/>
+        <c:axId val="-2108138600"/>
+        <c:axId val="-2108656072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124605768"/>
+        <c:axId val="-2108138600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124608824"/>
+        <c:crossAx val="-2108656072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124608824"/>
+        <c:axId val="-2108656072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1720,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124605768"/>
+        <c:crossAx val="-2108138600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1774,7 +1771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1948,11 +1944,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2108288568"/>
-        <c:axId val="2108291624"/>
+        <c:axId val="2116036440"/>
+        <c:axId val="-2108124968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108288568"/>
+        <c:axId val="2116036440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108291624"/>
+        <c:crossAx val="-2108124968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108291624"/>
+        <c:axId val="-2108124968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,14 +1976,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108288568"/>
+        <c:crossAx val="2116036440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2032,7 +2027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2206,11 +2200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124768152"/>
-        <c:axId val="2124771208"/>
+        <c:axId val="-2107930792"/>
+        <c:axId val="-2108492056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124768152"/>
+        <c:axId val="-2107930792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +2213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124771208"/>
+        <c:crossAx val="-2108492056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124771208"/>
+        <c:axId val="-2108492056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,14 +2232,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124768152"/>
+        <c:crossAx val="-2107930792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2290,7 +2283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2464,11 +2456,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2120177176"/>
-        <c:axId val="2120057240"/>
+        <c:axId val="-2107688984"/>
+        <c:axId val="-2108455032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120177176"/>
+        <c:axId val="-2107688984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120057240"/>
+        <c:crossAx val="-2108455032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2485,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120057240"/>
+        <c:axId val="-2108455032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,14 +2488,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120177176"/>
+        <c:crossAx val="-2107688984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2548,7 +2539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2722,11 +2712,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2120111480"/>
-        <c:axId val="2120114536"/>
+        <c:axId val="-2108193112"/>
+        <c:axId val="-2107772024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120111480"/>
+        <c:axId val="-2108193112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120114536"/>
+        <c:crossAx val="-2107772024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +2733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120114536"/>
+        <c:axId val="-2107772024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,14 +2744,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120111480"/>
+        <c:crossAx val="-2108193112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2806,7 +2795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2998,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2120053256"/>
-        <c:axId val="2120056312"/>
+        <c:axId val="-2107820600"/>
+        <c:axId val="-2107755912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120053256"/>
+        <c:axId val="-2107820600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120056312"/>
+        <c:crossAx val="-2107755912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3019,7 +3007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120056312"/>
+        <c:axId val="-2107755912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,14 +3018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120053256"/>
+        <c:crossAx val="-2107820600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3108,7 +3095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3190,7 +3176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3240,7 +3225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3310,7 +3294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3355,7 +3338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3425,7 +3407,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3960,11 +3941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087806104"/>
-        <c:axId val="2121297960"/>
+        <c:axId val="-2077729800"/>
+        <c:axId val="-2077726824"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2087806104"/>
+        <c:axId val="-2077729800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121297960"/>
+        <c:crossAx val="-2077726824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3981,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121297960"/>
+        <c:axId val="-2077726824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087806104"/>
+        <c:crossAx val="-2077729800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4043,7 +4024,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4113,7 +4093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4163,7 +4142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4233,7 +4211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5823,11 +5800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110536088"/>
-        <c:axId val="2110539064"/>
+        <c:axId val="-2079145192"/>
+        <c:axId val="-2078550760"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2110536088"/>
+        <c:axId val="-2079145192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,7 +5813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110539064"/>
+        <c:crossAx val="-2078550760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5844,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110539064"/>
+        <c:axId val="-2078550760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110536088"/>
+        <c:crossAx val="-2079145192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6341,11 +6318,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109901352"/>
-        <c:axId val="2109903992"/>
+        <c:axId val="2124625240"/>
+        <c:axId val="2124618392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109901352"/>
+        <c:axId val="2124625240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,7 +6336,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2109903992"/>
+        <c:crossAx val="2124618392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6367,24 +6344,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109903992"/>
+        <c:axId val="2124618392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109901352"/>
+        <c:crossAx val="2124625240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:ln>
-          <a:prstDash val="solid"/>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -6453,9 +6430,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0670368519924857"/>
+          <c:x val="0.0987302711236836"/>
           <c:y val="0.154751117437639"/>
-          <c:w val="0.899968224149646"/>
+          <c:w val="0.868274557712531"/>
           <c:h val="0.650633693427006"/>
         </c:manualLayout>
       </c:layout>
@@ -6663,11 +6640,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2121734888"/>
-        <c:axId val="2121737944"/>
+        <c:axId val="2124580280"/>
+        <c:axId val="2124583336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121734888"/>
+        <c:axId val="2124580280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6676,7 +6653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121737944"/>
+        <c:crossAx val="2124583336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6684,18 +6661,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121737944"/>
+        <c:axId val="2124583336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121734888"/>
+        <c:crossAx val="2124580280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6924,11 +6900,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2088618472"/>
-        <c:axId val="2088621528"/>
+        <c:axId val="2124526584"/>
+        <c:axId val="2124524024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2088618472"/>
+        <c:axId val="2124526584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +6913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088621528"/>
+        <c:crossAx val="2124524024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6945,18 +6921,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088621528"/>
+        <c:axId val="2124524024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088618472"/>
+        <c:crossAx val="2124526584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7249,11 +7224,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2087741144"/>
-        <c:axId val="2087754104"/>
+        <c:axId val="2124447608"/>
+        <c:axId val="2124444408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2087741144"/>
+        <c:axId val="2124447608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7262,7 +7237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087754104"/>
+        <c:crossAx val="2124444408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7270,18 +7245,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087754104"/>
+        <c:axId val="2124444408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087741144"/>
+        <c:crossAx val="2124447608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7346,9 +7320,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0671732443668346"/>
+          <c:x val="0.1039200330238"/>
           <c:y val="0.187132887741081"/>
-          <c:w val="0.899764700699289"/>
+          <c:w val="0.863017974051626"/>
           <c:h val="0.622601577292173"/>
         </c:manualLayout>
       </c:layout>
@@ -7538,11 +7512,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109982936"/>
-        <c:axId val="2122021256"/>
+        <c:axId val="2123859880"/>
+        <c:axId val="2123419272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109982936"/>
+        <c:axId val="2123859880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7551,7 +7525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122021256"/>
+        <c:crossAx val="2123419272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7559,18 +7533,43 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122021256"/>
+        <c:axId val="2123419272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00255623721881391"/>
+              <c:y val="0.2580518978087"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109982936"/>
+        <c:crossAx val="2123859880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7581,10 +7580,7 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="FFFFFF"/>
-      </a:solidFill>
-      <a:prstDash val="dot"/>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
   <c:printSettings>
@@ -7809,11 +7805,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2079965944"/>
-        <c:axId val="-2079962888"/>
+        <c:axId val="2124485928"/>
+        <c:axId val="2124420600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079965944"/>
+        <c:axId val="2124485928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,7 +7818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079962888"/>
+        <c:crossAx val="2124420600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7830,18 +7826,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079962888"/>
+        <c:axId val="2124420600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079965944"/>
+        <c:crossAx val="2124485928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8332,7 +8327,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8471,7 +8465,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9722,14 +9715,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>29633</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660401</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>16932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
+      <xdr:colOff>33867</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
@@ -9818,8 +9811,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -70002,8 +69995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-1540" yWindow="-21520" windowWidth="32700" windowHeight="20120" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1263,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123341544"/>
-        <c:axId val="2122420136"/>
+        <c:axId val="2117607304"/>
+        <c:axId val="2117610280"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2123341544"/>
+        <c:axId val="2117607304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122420136"/>
+        <c:crossAx val="2117610280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122420136"/>
+        <c:axId val="2117610280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123341544"/>
+        <c:crossAx val="2117607304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,11 +1688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2108138600"/>
-        <c:axId val="-2108656072"/>
+        <c:axId val="2115569064"/>
+        <c:axId val="2115572120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2108138600"/>
+        <c:axId val="2115569064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108656072"/>
+        <c:crossAx val="2115572120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108656072"/>
+        <c:axId val="2115572120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108138600"/>
+        <c:crossAx val="2115569064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1944,11 +1944,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2116036440"/>
-        <c:axId val="-2108124968"/>
+        <c:axId val="2115614568"/>
+        <c:axId val="2115617624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116036440"/>
+        <c:axId val="2115614568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108124968"/>
+        <c:crossAx val="2115617624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108124968"/>
+        <c:axId val="2115617624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116036440"/>
+        <c:crossAx val="2115614568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2200,11 +2200,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2107930792"/>
-        <c:axId val="-2108492056"/>
+        <c:axId val="2115660024"/>
+        <c:axId val="2115663080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107930792"/>
+        <c:axId val="2115660024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108492056"/>
+        <c:crossAx val="2115663080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2221,7 +2221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108492056"/>
+        <c:axId val="2115663080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107930792"/>
+        <c:crossAx val="2115660024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,11 +2456,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2107688984"/>
-        <c:axId val="-2108455032"/>
+        <c:axId val="2115704968"/>
+        <c:axId val="2115708024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107688984"/>
+        <c:axId val="2115704968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108455032"/>
+        <c:crossAx val="2115708024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108455032"/>
+        <c:axId val="2115708024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107688984"/>
+        <c:crossAx val="2115704968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,11 +2712,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2108193112"/>
-        <c:axId val="-2107772024"/>
+        <c:axId val="2115750632"/>
+        <c:axId val="2115753688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2108193112"/>
+        <c:axId val="2115750632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107772024"/>
+        <c:crossAx val="2115753688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2733,7 +2733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107772024"/>
+        <c:axId val="2115753688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,7 +2744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108193112"/>
+        <c:crossAx val="2115750632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2107820600"/>
-        <c:axId val="-2107755912"/>
+        <c:axId val="2115795768"/>
+        <c:axId val="2115798824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107820600"/>
+        <c:axId val="2115795768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +2999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107755912"/>
+        <c:crossAx val="2115798824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3007,7 +3007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107755912"/>
+        <c:axId val="2115798824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +3018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107820600"/>
+        <c:crossAx val="2115795768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3941,11 +3941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077729800"/>
-        <c:axId val="-2077726824"/>
+        <c:axId val="2117672856"/>
+        <c:axId val="2117675832"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2077729800"/>
+        <c:axId val="2117672856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077726824"/>
+        <c:crossAx val="2117675832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3962,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077726824"/>
+        <c:axId val="2117675832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077729800"/>
+        <c:crossAx val="2117672856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5800,11 +5800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079145192"/>
-        <c:axId val="-2078550760"/>
+        <c:axId val="2117702440"/>
+        <c:axId val="2117705416"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2079145192"/>
+        <c:axId val="2117702440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078550760"/>
+        <c:crossAx val="2117705416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5821,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078550760"/>
+        <c:axId val="2117705416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079145192"/>
+        <c:crossAx val="2117702440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6318,11 +6318,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124625240"/>
-        <c:axId val="2124618392"/>
+        <c:axId val="2118014888"/>
+        <c:axId val="2118018040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124625240"/>
+        <c:axId val="2118014888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6336,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2124618392"/>
+        <c:crossAx val="2118018040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124618392"/>
+        <c:axId val="2118018040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6354,7 +6354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124625240"/>
+        <c:crossAx val="2118014888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6640,11 +6640,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124580280"/>
-        <c:axId val="2124583336"/>
+        <c:axId val="2118060120"/>
+        <c:axId val="2118063176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124580280"/>
+        <c:axId val="2118060120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,7 +6653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124583336"/>
+        <c:crossAx val="2118063176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6661,17 +6661,36 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124583336"/>
+        <c:axId val="2118063176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Number of participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124580280"/>
+        <c:crossAx val="2118060120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6900,11 +6919,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124526584"/>
-        <c:axId val="2124524024"/>
+        <c:axId val="2117221224"/>
+        <c:axId val="2117218152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124526584"/>
+        <c:axId val="2117221224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,7 +6932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124524024"/>
+        <c:crossAx val="2117218152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6921,7 +6940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124524024"/>
+        <c:axId val="2117218152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6931,7 +6950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124526584"/>
+        <c:crossAx val="2117221224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7224,11 +7243,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124447608"/>
-        <c:axId val="2124444408"/>
+        <c:axId val="2040636856"/>
+        <c:axId val="2040633784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124447608"/>
+        <c:axId val="2040636856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7237,7 +7256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124444408"/>
+        <c:crossAx val="2040633784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7245,7 +7264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124444408"/>
+        <c:axId val="2040633784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +7274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124447608"/>
+        <c:crossAx val="2040636856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7512,11 +7531,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2123859880"/>
-        <c:axId val="2123419272"/>
+        <c:axId val="2040586632"/>
+        <c:axId val="2040583560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123859880"/>
+        <c:axId val="2040586632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,7 +7544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123419272"/>
+        <c:crossAx val="2040583560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7533,7 +7552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123419272"/>
+        <c:axId val="2040583560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,10 +7565,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
                   <a:t>Number of participants</a:t>
                 </a:r>
               </a:p>
@@ -7559,8 +7578,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00255623721881391"/>
-              <c:y val="0.2580518978087"/>
+              <c:x val="0.00500603764558827"/>
+              <c:y val="0.182527413967008"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7569,7 +7588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123859880"/>
+        <c:crossAx val="2040586632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7805,11 +7824,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2124485928"/>
-        <c:axId val="2124420600"/>
+        <c:axId val="2040540760"/>
+        <c:axId val="2040537688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124485928"/>
+        <c:axId val="2040540760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7818,7 +7837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124420600"/>
+        <c:crossAx val="2040537688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7826,7 +7845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124420600"/>
+        <c:axId val="2040537688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7836,7 +7855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124485928"/>
+        <c:crossAx val="2040540760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9873,6 +9892,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Screen Shot 2015-10-12 at 17.31.47.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7020560" y="4572000"/>
+          <a:ext cx="4013200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -69995,8 +70058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1540" yWindow="-21520" windowWidth="32700" windowHeight="20120" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-3040" yWindow="-21520" windowWidth="34820" windowHeight="19560" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="73">
   <si>
     <t>1. How long have you been familiar with the Semantic Web and Linked Data technologies?</t>
   </si>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -441,6 +441,10 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -496,7 +500,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -592,8 +596,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -640,8 +648,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -689,6 +698,8 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -736,6 +747,8 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1263,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117607304"/>
-        <c:axId val="2117610280"/>
+        <c:axId val="2139283752"/>
+        <c:axId val="2139286728"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2117607304"/>
+        <c:axId val="2139283752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117610280"/>
+        <c:crossAx val="2139286728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117610280"/>
+        <c:axId val="2139286728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117607304"/>
+        <c:crossAx val="2139283752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1346,6 +1359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1479,6 +1493,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1602,13 +1617,13 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1686,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,11 +1703,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115569064"/>
-        <c:axId val="2115572120"/>
+        <c:axId val="-2049725544"/>
+        <c:axId val="-2082958248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115569064"/>
+        <c:axId val="-2049725544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115572120"/>
+        <c:crossAx val="-2082958248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115572120"/>
+        <c:axId val="-2082958248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,13 +1735,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115569064"/>
+        <c:crossAx val="-2049725544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1771,6 +1787,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1873,10 +1890,10 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,7 +1944,7 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,11 +1961,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115614568"/>
-        <c:axId val="2115617624"/>
+        <c:axId val="-2082744696"/>
+        <c:axId val="-2082756312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115614568"/>
+        <c:axId val="-2082744696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115617624"/>
+        <c:crossAx val="-2082756312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115617624"/>
+        <c:axId val="-2082756312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,13 +1993,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115614568"/>
+        <c:crossAx val="-2082744696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2027,6 +2045,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2129,10 +2148,10 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0</c:v>
@@ -2200,11 +2219,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115660024"/>
-        <c:axId val="2115663080"/>
+        <c:axId val="-2130343592"/>
+        <c:axId val="-2130336568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115660024"/>
+        <c:axId val="-2130343592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115663080"/>
+        <c:crossAx val="-2130336568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2221,7 +2240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115663080"/>
+        <c:axId val="-2130336568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,13 +2251,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115660024"/>
+        <c:crossAx val="-2130343592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2283,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2385,10 +2406,10 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2454,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -2456,11 +2477,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115704968"/>
-        <c:axId val="2115708024"/>
+        <c:axId val="-2083200456"/>
+        <c:axId val="-2083303448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115704968"/>
+        <c:axId val="-2083200456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115708024"/>
+        <c:crossAx val="-2083303448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2477,7 +2498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115708024"/>
+        <c:axId val="-2083303448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,13 +2509,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115704968"/>
+        <c:crossAx val="-2083200456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2539,6 +2561,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2638,10 +2661,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
@@ -2692,7 +2715,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
@@ -2712,11 +2735,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115750632"/>
-        <c:axId val="2115753688"/>
+        <c:axId val="-2049812584"/>
+        <c:axId val="-2130209976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115750632"/>
+        <c:axId val="-2049812584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115753688"/>
+        <c:crossAx val="-2130209976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2733,7 +2756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115753688"/>
+        <c:axId val="-2130209976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,13 +2767,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115750632"/>
+        <c:crossAx val="-2049812584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2795,6 +2819,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2909,10 +2934,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,7 +2991,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.0</c:v>
@@ -2986,11 +3011,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2115795768"/>
-        <c:axId val="2115798824"/>
+        <c:axId val="-2129702744"/>
+        <c:axId val="-2125324232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2115795768"/>
+        <c:axId val="-2129702744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +3024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115798824"/>
+        <c:crossAx val="-2125324232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3007,7 +3032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115798824"/>
+        <c:axId val="-2125324232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,13 +3043,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115795768"/>
+        <c:crossAx val="-2129702744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3941,11 +3967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117672856"/>
-        <c:axId val="2117675832"/>
+        <c:axId val="2139315432"/>
+        <c:axId val="2139318408"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2117672856"/>
+        <c:axId val="2139315432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,7 +3980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117675832"/>
+        <c:crossAx val="2139318408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3962,7 +3988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117675832"/>
+        <c:axId val="2139318408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +3999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117672856"/>
+        <c:crossAx val="2139315432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5800,11 +5826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117702440"/>
-        <c:axId val="2117705416"/>
+        <c:axId val="-2036093336"/>
+        <c:axId val="-2036090392"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2117702440"/>
+        <c:axId val="-2036093336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117705416"/>
+        <c:crossAx val="-2036090392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5821,7 +5847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117705416"/>
+        <c:axId val="-2036090392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117702440"/>
+        <c:crossAx val="-2036093336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6247,10 +6273,10 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6301,7 +6327,7 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6318,11 +6344,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2118014888"/>
-        <c:axId val="2118018040"/>
+        <c:axId val="-2035073496"/>
+        <c:axId val="-2035070344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118014888"/>
+        <c:axId val="-2035073496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6362,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2118018040"/>
+        <c:crossAx val="-2035070344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118018040"/>
+        <c:axId val="-2035070344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6354,7 +6380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118014888"/>
+        <c:crossAx val="-2035073496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6554,13 +6580,13 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6623,7 +6649,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6640,11 +6666,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2118060120"/>
-        <c:axId val="2118063176"/>
+        <c:axId val="-2035028264"/>
+        <c:axId val="-2035025208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118060120"/>
+        <c:axId val="-2035028264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,7 +6679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118063176"/>
+        <c:crossAx val="-2035025208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6661,7 +6687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118063176"/>
+        <c:axId val="-2035025208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6690,7 +6716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118060120"/>
+        <c:crossAx val="-2035028264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6848,10 +6874,10 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6896,7 +6922,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0</c:v>
@@ -6919,11 +6945,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2117221224"/>
-        <c:axId val="2117218152"/>
+        <c:axId val="-2034978952"/>
+        <c:axId val="-2034975896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117221224"/>
+        <c:axId val="-2034978952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,7 +6958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117218152"/>
+        <c:crossAx val="-2034975896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6940,7 +6966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117218152"/>
+        <c:axId val="-2034975896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,7 +6976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117221224"/>
+        <c:crossAx val="-2034978952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7172,10 +7198,10 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7220,7 +7246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -7243,11 +7269,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2040636856"/>
-        <c:axId val="2040633784"/>
+        <c:axId val="-2126240440"/>
+        <c:axId val="-2121982024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2040636856"/>
+        <c:axId val="-2126240440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7256,7 +7282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040633784"/>
+        <c:crossAx val="-2121982024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7264,7 +7290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040633784"/>
+        <c:axId val="-2121982024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7274,7 +7300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040636856"/>
+        <c:crossAx val="-2126240440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7454,10 +7480,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7511,7 +7537,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.0</c:v>
@@ -7531,11 +7557,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2040586632"/>
-        <c:axId val="2040583560"/>
+        <c:axId val="-2121460856"/>
+        <c:axId val="-2126330120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2040586632"/>
+        <c:axId val="-2121460856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7544,7 +7570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040583560"/>
+        <c:crossAx val="-2126330120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7552,7 +7578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040583560"/>
+        <c:axId val="-2126330120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7588,7 +7614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040586632"/>
+        <c:crossAx val="-2121460856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7750,10 +7776,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
@@ -7804,7 +7830,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0</c:v>
@@ -7824,11 +7850,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2040540760"/>
-        <c:axId val="2040537688"/>
+        <c:axId val="-2080863864"/>
+        <c:axId val="-2080611672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2040540760"/>
+        <c:axId val="-2080863864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7837,7 +7863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040537688"/>
+        <c:crossAx val="-2080611672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7845,7 +7871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040537688"/>
+        <c:axId val="-2080611672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7855,7 +7881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040540760"/>
+        <c:crossAx val="-2080863864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8113,10 +8139,10 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8346,6 +8372,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8484,6 +8511,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8853,15 +8881,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>505460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>382270</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -41872,8 +41900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1075"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -44776,13 +44804,27 @@
       <c r="V76" s="20"/>
     </row>
     <row r="77" spans="1:22" ht="16">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="A77" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -44800,13 +44842,27 @@
       <c r="V77" s="9"/>
     </row>
     <row r="78" spans="1:22" ht="16">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="A78" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -44824,13 +44880,27 @@
       <c r="V78" s="9"/>
     </row>
     <row r="79" spans="1:22" ht="16">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="A79" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -44848,13 +44918,27 @@
       <c r="V79" s="9"/>
     </row>
     <row r="80" spans="1:22" ht="16">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="A80" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -68768,8 +68852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="C77" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T112" sqref="T112"/>
+    <sheetView tabSelected="1" topLeftCell="E83" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -68842,7 +68926,7 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17">
@@ -68850,7 +68934,7 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17">
@@ -69010,13 +69094,13 @@
         <v>5</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <v>4</v>
       </c>
       <c r="K40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16">
@@ -69042,7 +69126,7 @@
         <v>3</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="32">
@@ -69065,7 +69149,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -69073,7 +69157,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="32">
@@ -69118,7 +69202,7 @@
       </c>
       <c r="I46" s="22">
         <f t="shared" si="1"/>
-        <v>52.631578947368418</v>
+        <v>47.619047619047613</v>
       </c>
       <c r="J46" s="22">
         <f t="shared" si="1"/>
@@ -69126,7 +69210,7 @@
       </c>
       <c r="K46" s="22">
         <f t="shared" si="1"/>
-        <v>35.714285714285715</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17">
@@ -69149,7 +69233,7 @@
       </c>
       <c r="I47" s="22">
         <f t="shared" si="2"/>
-        <v>36.84210526315789</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="J47" s="22">
         <f t="shared" si="2"/>
@@ -69157,7 +69241,7 @@
       </c>
       <c r="K47" s="22">
         <f t="shared" si="2"/>
-        <v>57.142857142857139</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34">
@@ -69180,7 +69264,7 @@
       </c>
       <c r="I48" s="22">
         <f t="shared" si="3"/>
-        <v>10.526315789473683</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="J48" s="22">
         <f t="shared" si="3"/>
@@ -69188,7 +69272,7 @@
       </c>
       <c r="K48" s="22">
         <f t="shared" si="3"/>
-        <v>7.1428571428571423</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="34">
@@ -69232,10 +69316,10 @@
         <v>8</v>
       </c>
       <c r="H54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -69249,7 +69333,7 @@
         <v>7</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="6:9" ht="60">
@@ -69285,10 +69369,10 @@
         <v>8</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="6:9">
@@ -69296,7 +69380,7 @@
         <v>66</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H71">
         <v>6</v>
@@ -69338,10 +69422,10 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I86">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="6:9">
@@ -69349,7 +69433,7 @@
         <v>66</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -69388,10 +69472,10 @@
         <v>65</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -69405,7 +69489,7 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -69453,10 +69537,10 @@
         <v>4</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J119">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="6:10">
@@ -69470,7 +69554,7 @@
         <v>4</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J120">
         <v>8</v>
@@ -70058,8 +70142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3040" yWindow="-21520" windowWidth="34820" windowHeight="19560" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-3040" yWindow="-21520" windowWidth="34820" windowHeight="19560" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="9" r:id="rId1"/>
@@ -1276,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139283752"/>
-        <c:axId val="2139286728"/>
+        <c:axId val="-2121467800"/>
+        <c:axId val="-2121650568"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2139283752"/>
+        <c:axId val="-2121467800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139286728"/>
+        <c:crossAx val="-2121650568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139286728"/>
+        <c:axId val="-2121650568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139283752"/>
+        <c:crossAx val="-2121467800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1359,7 +1359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1493,7 +1492,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1703,11 +1701,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2049725544"/>
-        <c:axId val="-2082958248"/>
+        <c:axId val="-2082488600"/>
+        <c:axId val="-2049117960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2049725544"/>
+        <c:axId val="-2082488600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082958248"/>
+        <c:crossAx val="-2049117960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082958248"/>
+        <c:axId val="-2049117960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,14 +1733,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049725544"/>
+        <c:crossAx val="-2082488600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1787,7 +1784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1961,11 +1957,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2082744696"/>
-        <c:axId val="-2082756312"/>
+        <c:axId val="-2083176776"/>
+        <c:axId val="-2049386792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082744696"/>
+        <c:axId val="-2083176776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +1970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082756312"/>
+        <c:crossAx val="-2049386792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1982,7 +1978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082756312"/>
+        <c:axId val="-2049386792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,14 +1989,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082744696"/>
+        <c:crossAx val="-2083176776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2045,7 +2040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2219,11 +2213,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130343592"/>
-        <c:axId val="-2130336568"/>
+        <c:axId val="-2122608792"/>
+        <c:axId val="-2129711064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130343592"/>
+        <c:axId val="-2122608792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130336568"/>
+        <c:crossAx val="-2129711064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130336568"/>
+        <c:axId val="-2129711064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,14 +2245,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130343592"/>
+        <c:crossAx val="-2122608792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2477,11 +2470,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2083200456"/>
-        <c:axId val="-2083303448"/>
+        <c:axId val="-2082847576"/>
+        <c:axId val="-2049826248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083200456"/>
+        <c:axId val="-2082847576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083303448"/>
+        <c:crossAx val="-2049826248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2498,7 +2491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083303448"/>
+        <c:axId val="-2049826248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083200456"/>
+        <c:crossAx val="-2082847576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2735,11 +2728,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2049812584"/>
-        <c:axId val="-2130209976"/>
+        <c:axId val="-2083264424"/>
+        <c:axId val="-2083261464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2049812584"/>
+        <c:axId val="-2083264424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130209976"/>
+        <c:crossAx val="-2083261464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2756,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130209976"/>
+        <c:axId val="-2083261464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049812584"/>
+        <c:crossAx val="-2083264424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3011,11 +3004,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2129702744"/>
-        <c:axId val="-2125324232"/>
+        <c:axId val="-2049216968"/>
+        <c:axId val="-2049888088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129702744"/>
+        <c:axId val="-2049216968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3024,7 +3017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125324232"/>
+        <c:crossAx val="-2049888088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3032,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125324232"/>
+        <c:axId val="-2049888088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129702744"/>
+        <c:crossAx val="-2049216968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3967,11 +3960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139315432"/>
-        <c:axId val="2139318408"/>
+        <c:axId val="-2122296472"/>
+        <c:axId val="-2121652936"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2139315432"/>
+        <c:axId val="-2122296472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +3973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139318408"/>
+        <c:crossAx val="-2121652936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3988,7 +3981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139318408"/>
+        <c:axId val="-2121652936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +3992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139315432"/>
+        <c:crossAx val="-2122296472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5826,11 +5819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2036093336"/>
-        <c:axId val="-2036090392"/>
+        <c:axId val="-2122275304"/>
+        <c:axId val="-2126240472"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-2036093336"/>
+        <c:axId val="-2122275304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036090392"/>
+        <c:crossAx val="-2126240472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5847,7 +5840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036090392"/>
+        <c:axId val="-2126240472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,7 +5851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036093336"/>
+        <c:crossAx val="-2122275304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6344,11 +6337,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2035073496"/>
-        <c:axId val="-2035070344"/>
+        <c:axId val="-2082536168"/>
+        <c:axId val="-2082533016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035073496"/>
+        <c:axId val="-2082536168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,7 +6355,7 @@
             <a:prstDash val="solid"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2035070344"/>
+        <c:crossAx val="-2082533016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6370,7 +6363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035070344"/>
+        <c:axId val="-2082533016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,7 +6373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035073496"/>
+        <c:crossAx val="-2082536168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6666,11 +6659,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2035028264"/>
-        <c:axId val="-2035025208"/>
+        <c:axId val="-2083317256"/>
+        <c:axId val="-2083215080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035028264"/>
+        <c:axId val="-2083317256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6679,7 +6672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035025208"/>
+        <c:crossAx val="-2083215080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6687,7 +6680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2035025208"/>
+        <c:axId val="-2083215080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6716,7 +6709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035028264"/>
+        <c:crossAx val="-2083317256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6945,11 +6938,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2034978952"/>
-        <c:axId val="-2034975896"/>
+        <c:axId val="-2083105608"/>
+        <c:axId val="-2082743944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2034978952"/>
+        <c:axId val="-2083105608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6958,7 +6951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2034975896"/>
+        <c:crossAx val="-2082743944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6966,7 +6959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2034975896"/>
+        <c:axId val="-2082743944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6976,7 +6969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2034978952"/>
+        <c:crossAx val="-2083105608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7269,11 +7262,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2126240440"/>
-        <c:axId val="-2121982024"/>
+        <c:axId val="-2049522040"/>
+        <c:axId val="-2049518984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126240440"/>
+        <c:axId val="-2049522040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7282,7 +7275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121982024"/>
+        <c:crossAx val="-2049518984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7290,7 +7283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121982024"/>
+        <c:axId val="-2049518984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7300,7 +7293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126240440"/>
+        <c:crossAx val="-2049522040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7557,11 +7550,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2121460856"/>
-        <c:axId val="-2126330120"/>
+        <c:axId val="-2083153576"/>
+        <c:axId val="-2049843992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121460856"/>
+        <c:axId val="-2083153576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,7 +7563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126330120"/>
+        <c:crossAx val="-2049843992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7578,7 +7571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126330120"/>
+        <c:axId val="-2049843992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7614,7 +7607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121460856"/>
+        <c:crossAx val="-2083153576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7850,11 +7843,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2080863864"/>
-        <c:axId val="-2080611672"/>
+        <c:axId val="-2049943672"/>
+        <c:axId val="-2082794328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2080863864"/>
+        <c:axId val="-2049943672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7863,7 +7856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080611672"/>
+        <c:crossAx val="-2082794328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7871,7 +7864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080611672"/>
+        <c:axId val="-2082794328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7881,7 +7874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080863864"/>
+        <c:crossAx val="-2049943672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8372,7 +8365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8511,7 +8503,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9737,7 +9728,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>575734</xdr:colOff>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
@@ -9795,13 +9786,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
+      <xdr:colOff>247227</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>766234</xdr:colOff>
+      <xdr:colOff>471594</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
@@ -9833,7 +9824,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>553720</xdr:colOff>
+      <xdr:colOff>264160</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
@@ -9891,15 +9882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9923,13 +9914,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -9954,7 +9945,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7020560" y="4572000"/>
+          <a:off x="6939280" y="4572000"/>
           <a:ext cx="4013200" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -68852,7 +68843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E83" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="E83" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
@@ -70142,8 +70133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/survey/results.xlsx
+++ b/survey/results.xlsx
@@ -6769,7 +6769,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0600603200967353"/>
+          <c:y val="0.143848544710861"/>
+          <c:w val="0.903036287173872"/>
+          <c:h val="0.604274173657027"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -70134,7 +70144,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
